--- a/subj/OPD/Labs/lab4/Программа.xlsx
+++ b/subj/OPD/Labs/lab4/Программа.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipka23/Desktop/ITMO/Subj/OPD/Labs/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0430B4C3-F2C6-9545-BF57-22078D498266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728B2B62-FA33-1A42-A08D-262DAACA8D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{6B6629DE-536A-E349-9C39-C40DB04E02D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Адрес</t>
   </si>
@@ -427,11 +427,6 @@
 Содержимое AC на вершину стека</t>
   </si>
   <si>
-    <t>AC -&gt; -(SP)
-?AC -&gt; MEM(7FF)
-Содержимое AC на вершину стека</t>
-  </si>
-  <si>
     <t>AC + MEM(IP+5) -&gt; AC
 AC + MEM(2C0) -&gt; AC</t>
   </si>
@@ -464,21 +459,9 @@
     <t>BMI</t>
   </si>
   <si>
-    <t>Переход в (IP+7) если N==1 (число&lt;=0)</t>
-  </si>
-  <si>
     <t>BEQ</t>
   </si>
   <si>
-    <t>Переход в (IP+6) если Z==1 (числа равны)</t>
-  </si>
-  <si>
-    <t>Устанавливаем флаги по результату AC - MEM(IP+8)</t>
-  </si>
-  <si>
-    <t>Переход в (IP+9) если N==V (число больше или равно)</t>
-  </si>
-  <si>
     <t>BGE</t>
   </si>
   <si>
@@ -486,12 +469,6 @@
   </si>
   <si>
     <t>Сдвиг AC влево, AC(15) -&gt; C, 0 -&gt; AC(0)</t>
-  </si>
-  <si>
-    <t>AC + (SP+1) -&gt; AC</t>
-  </si>
-  <si>
-    <t>AC + (IP+5) -&gt; AC</t>
   </si>
   <si>
     <t>IP + 1 -&gt; IP</t>
@@ -508,10 +485,68 @@
 Адрес возврата записываем в IP</t>
   </si>
   <si>
-    <t>Константа A</t>
-  </si>
-  <si>
-    <t>Константа B</t>
+    <t>Загрузка 0 в r
+R = 0</t>
+  </si>
+  <si>
+    <t>SP = 7FF
+7FF = z + 1</t>
+  </si>
+  <si>
+    <t>SP = 7FE
+IP = 688</t>
+  </si>
+  <si>
+    <t>SP-1 -&gt; SP
+IP -&gt; DR
+688 - &gt; IP
+Вызов подпрограммы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC = z + 1 </t>
+  </si>
+  <si>
+    <t>1 вызов</t>
+  </si>
+  <si>
+    <t>Константа A = 3642</t>
+  </si>
+  <si>
+    <t>Константа B = 161</t>
+  </si>
+  <si>
+    <t>Переход в (IP+7 = 691) если N==1 (число&lt;0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход в (IP+6 = 691) если Z==1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">если  z + 1 &lt;= 0  то переход в 691  </t>
+  </si>
+  <si>
+    <t>Устанавливаем флаги по результату AC - MEM(IP+8 = 694)</t>
+  </si>
+  <si>
+    <t>Переход в (IP+ 4 = 691) если N==V (число больше или равно)</t>
+  </si>
+  <si>
+    <t>Загрузка в аккумулятор z + 1 
+AC = z + 1</t>
+  </si>
+  <si>
+    <t>AC + MEM(SP+1) -&gt; AC</t>
+  </si>
+  <si>
+    <t>AC +MEM (IP+5) -&gt; AC</t>
+  </si>
+  <si>
+    <t>AC =(z+1)*3 + 161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">если  z + 1 &gt;= 3642  то переход в 691  </t>
+  </si>
+  <si>
+    <t>Переход на  692</t>
   </si>
 </sst>
 </file>
@@ -625,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -645,16 +680,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,8 +695,17 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,16 +729,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>303932</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>108547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>751406</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>230380</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>349847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -730,8 +768,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6604000" y="304800"/>
-          <a:ext cx="7355406" cy="5130800"/>
+          <a:off x="14187094" y="1085470"/>
+          <a:ext cx="7351064" cy="5125915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,15 +1104,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F364D77-9773-E14F-BD54-BFD3990EB1BC}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="54.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,7 +1144,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1142,6 +1182,9 @@
       <c r="D3" s="5" t="s">
         <v>107</v>
       </c>
+      <c r="E3" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="Y3" s="4" t="s">
         <v>37</v>
       </c>
@@ -1168,6 +1211,9 @@
       <c r="D4" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="E4" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="Y4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1194,6 +1240,7 @@
       <c r="D5" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="E5" s="14"/>
       <c r="Y5" s="4" t="s">
         <v>39</v>
       </c>
@@ -1218,7 +1265,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>121</v>
+        <v>97</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>40</v>
@@ -1240,11 +1290,14 @@
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>142</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>41</v>
@@ -1266,7 +1319,7 @@
       <c r="B8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1410,7 +1463,7 @@
       <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1432,7 +1485,7 @@
       <c r="B15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1542,7 +1595,7 @@
       <c r="B20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1564,7 +1617,7 @@
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1580,7 +1633,7 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1590,7 +1643,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y22" s="6" t="s">
         <v>56</v>
@@ -1612,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>57</v>
@@ -1630,11 +1683,11 @@
       <c r="B24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>58</v>
@@ -1653,10 +1706,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>59</v>
@@ -1675,10 +1728,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y26" s="4" t="s">
         <v>60</v>
@@ -1697,10 +1750,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>61</v>
@@ -1719,10 +1772,10 @@
         <v>76</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>62</v>
@@ -1734,18 +1787,21 @@
       <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="Y29" s="7" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -1754,11 +1810,14 @@
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="Y30" s="4">
         <v>688</v>
@@ -1777,10 +1836,13 @@
         <v>77</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>132</v>
+        <v>147</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="Y31" s="4">
         <v>689</v>
@@ -1799,11 +1861,12 @@
         <v>78</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E32" s="14"/>
       <c r="Y32" s="4" t="s">
         <v>63</v>
       </c>
@@ -1824,7 +1887,10 @@
         <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="Y33" s="4" t="s">
         <v>64</v>
@@ -1843,11 +1909,12 @@
         <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E34" s="14"/>
       <c r="Y34" s="4" t="s">
         <v>65</v>
       </c>
@@ -1865,11 +1932,15 @@
         <v>90</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>139</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="14"/>
       <c r="Y35" s="4" t="s">
         <v>66</v>
       </c>
@@ -1890,8 +1961,10 @@
         <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="Y36" s="4" t="s">
         <v>67</v>
       </c>
@@ -1912,8 +1985,10 @@
         <v>27</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="Y37" s="4" t="s">
         <v>68</v>
       </c>
@@ -1934,7 +2009,10 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="Y38" s="4">
         <v>690</v>
@@ -1956,7 +2034,7 @@
         <v>31</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Y39" s="4">
         <v>691</v>
@@ -1978,7 +2056,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Y40" s="4">
         <v>692</v>
@@ -1996,11 +2074,11 @@
       <c r="B41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Y41" s="4">
         <v>693</v>
@@ -2019,10 +2097,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y42" s="4">
         <v>694</v>
@@ -2041,12 +2119,12 @@
         <v>81</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="G43" s="7"/>
       <c r="Y43" s="4">
         <v>695</v>
       </c>
@@ -2057,15 +2135,20 @@
       <c r="AB43" s="4"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G45" s="9"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G49" s="9"/>
+      <c r="G49" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E35:E37"/>
     <mergeCell ref="Y29:AB29"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/subj/OPD/Labs/lab4/Программа.xlsx
+++ b/subj/OPD/Labs/lab4/Программа.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipka23/Desktop/ITMO/Subj/OPD/Labs/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728B2B62-FA33-1A42-A08D-262DAACA8D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D929C-F106-A14D-A5AC-428D47D7A645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{6B6629DE-536A-E349-9C39-C40DB04E02D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="174">
   <si>
     <t>Адрес</t>
   </si>
@@ -83,13 +83,7 @@
     <t>AE08</t>
   </si>
   <si>
-    <t>LD (IP+8)</t>
-  </si>
-  <si>
     <t>EE04</t>
-  </si>
-  <si>
-    <t>ST (IP+4)</t>
   </si>
   <si>
     <t>ZZZZ</t>
@@ -358,83 +352,9 @@
 AC -&gt; MEM(2BA)</t>
   </si>
   <si>
-    <t>ST (IP+24)</t>
-  </si>
-  <si>
-    <t>LD (IP+20)</t>
-  </si>
-  <si>
-    <t>SUB (IP+18)</t>
-  </si>
-  <si>
-    <t>ST (IP+17)</t>
-  </si>
-  <si>
-    <t>AC -&gt; MEM(IP+24)
-AC -&gt;MEM(2C0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MEM(IP+20) -&gt; AC
-MEM(2BD) -&gt; AC</t>
-  </si>
-  <si>
-    <t>AC - (IP+18) -&gt; AC
-AC - MEM(2C0) -&gt; AC</t>
-  </si>
-  <si>
-    <t>AC -&gt; MEM(IP+17)
-AC -&gt; MEM(2C0)</t>
-  </si>
-  <si>
     <t>MEM(2BE) -&gt; AC</t>
   </si>
   <si>
-    <t>ADD (IP+11)</t>
-  </si>
-  <si>
-    <t>AC + MEM(IP+11) -&gt; AC
-AC + MEM(2C0) -&gt; AC</t>
-  </si>
-  <si>
-    <t>ST (IP+10)</t>
-  </si>
-  <si>
-    <t>AC -&gt; MEM(IP+10)
-AC -&gt; MEM(2C0)</t>
-  </si>
-  <si>
-    <t>MEM(IP+8) -&gt; AC
-MEM(2BF) -&gt; AC</t>
-  </si>
-  <si>
-    <t>(SP)+ -&gt; AC
-?MEM(7FE) -&gt; AC
-Результат подпрограммы записали в AC</t>
-  </si>
-  <si>
-    <t>AC -&gt; -(SP)
-?AC -&gt; MEM(7FD)
-Содержимое AC на вершину стека</t>
-  </si>
-  <si>
-    <t>(SP)+ -&gt; AC
-?MEM(7FF) -&gt; AC
-Результат подпрограммы записали в AC</t>
-  </si>
-  <si>
-    <t>AC -&gt; -(SP)
-?AC -&gt; MEM(7FE)
-Содержимое AC на вершину стека</t>
-  </si>
-  <si>
-    <t>AC + MEM(IP+5) -&gt; AC
-AC + MEM(2C0) -&gt; AC</t>
-  </si>
-  <si>
-    <t>AC -&gt; MEM(IP+4)
-AC -&gt; MEM(2C0)</t>
-  </si>
-  <si>
     <t>Переменная z</t>
   </si>
   <si>
@@ -444,9 +364,6 @@
     <t>Переменная x</t>
   </si>
   <si>
-    <t>Результат программы r</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -468,13 +385,7 @@
     <t>ASL</t>
   </si>
   <si>
-    <t>Сдвиг AC влево, AC(15) -&gt; C, 0 -&gt; AC(0)</t>
-  </si>
-  <si>
     <t>IP + 1 -&gt; IP</t>
-  </si>
-  <si>
-    <t>MEM(IP+2) -&gt; AC</t>
   </si>
   <si>
     <t xml:space="preserve">AC -&gt; MEM(SP+1)
@@ -485,75 +396,213 @@
 Адрес возврата записываем в IP</t>
   </si>
   <si>
-    <t>Загрузка 0 в r
-R = 0</t>
-  </si>
-  <si>
-    <t>SP = 7FF
-7FF = z + 1</t>
-  </si>
-  <si>
     <t>SP = 7FE
 IP = 688</t>
   </si>
   <si>
-    <t>SP-1 -&gt; SP
+    <t>Константа A = 3642</t>
+  </si>
+  <si>
+    <t>Константа B = 161</t>
+  </si>
+  <si>
+    <t>Устанавливаем флаги по результату AC - MEM(IP+8 = 694)</t>
+  </si>
+  <si>
+    <t>Переход в (IP+ 4 = 691) если N==V (число больше или равно)</t>
+  </si>
+  <si>
+    <t>Загрузка в аккумулятор z + 1 
+AC = z + 1</t>
+  </si>
+  <si>
+    <t>Переход в  692</t>
+  </si>
+  <si>
+    <t>MEM(IP+2 = 694) -&gt; AC</t>
+  </si>
+  <si>
+    <t>SP = 7FF
+7FF:  z + 1</t>
+  </si>
+  <si>
+    <t>f(x) = 3x + 161</t>
+  </si>
+  <si>
+    <t>0 &lt; x &lt; 3642</t>
+  </si>
+  <si>
+    <t>при x [-inf; 0] U [3642; +inf] f(x) = 3642</t>
+  </si>
+  <si>
+    <t>ST (IP+24 = 2C0)</t>
+  </si>
+  <si>
+    <t>LD (IP+20 = 2BD)</t>
+  </si>
+  <si>
+    <t>ADD (IP+11 = 2C0)</t>
+  </si>
+  <si>
+    <t>ST (IP+10 = 2C0)</t>
+  </si>
+  <si>
+    <t>AC -&gt; MEM(2C0)</t>
+  </si>
+  <si>
+    <t>AC + MEM(2C0) -&gt; AC</t>
+  </si>
+  <si>
+    <t>AC -&gt; -(SP)
+AC -&gt; MEM(7FE)
+Содержимое AC на вершину стека</t>
+  </si>
+  <si>
+    <t>LD (IP+8= 2BF)</t>
+  </si>
+  <si>
+    <t>MEM(2BF) -&gt; AC</t>
+  </si>
+  <si>
+    <t>SP-1 -&gt; SP 
 IP -&gt; DR
 688 - &gt; IP
+7FE: 2AC
 Вызов подпрограммы</t>
   </si>
   <si>
-    <t xml:space="preserve">AC = z + 1 </t>
-  </si>
-  <si>
-    <t>1 вызов</t>
-  </si>
-  <si>
-    <t>Константа A = 3642</t>
-  </si>
-  <si>
-    <t>Константа B = 161</t>
-  </si>
-  <si>
-    <t>Переход в (IP+7 = 691) если N==1 (число&lt;0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Переход в (IP+6 = 691) если Z==1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">если  z + 1 &lt;= 0  то переход в 691  </t>
-  </si>
-  <si>
-    <t>Устанавливаем флаги по результату AC - MEM(IP+8 = 694)</t>
-  </si>
-  <si>
-    <t>Переход в (IP+ 4 = 691) если N==V (число больше или равно)</t>
-  </si>
-  <si>
-    <t>Загрузка в аккумулятор z + 1 
-AC = z + 1</t>
-  </si>
-  <si>
-    <t>AC + MEM(SP+1) -&gt; AC</t>
-  </si>
-  <si>
-    <t>AC +MEM (IP+5) -&gt; AC</t>
-  </si>
-  <si>
-    <t>AC =(z+1)*3 + 161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">если  z + 1 &gt;= 3642  то переход в 691  </t>
-  </si>
-  <si>
-    <t>Переход на  692</t>
+    <t>AC - MEM(2C0) -&gt; AC</t>
+  </si>
+  <si>
+    <t>ST (IP+17 = 2C0)</t>
+  </si>
+  <si>
+    <t>LD (IP+14 = 2BE)</t>
+  </si>
+  <si>
+    <t>ADD (IP+5 = 2C0)</t>
+  </si>
+  <si>
+    <t>ST (IP+4 = 2C0)</t>
+  </si>
+  <si>
+    <t>SP-1 -&gt; SP 
+IP -&gt; DR
+688 - &gt; IP
+7FE: 2B9
+Вызов подпрограммы</t>
+  </si>
+  <si>
+    <t>SP-1 -&gt; SP 
+IP -&gt; DR
+688 - &gt; IP
+7FE: 2B2
+Вызов подпрограммы</t>
+  </si>
+  <si>
+    <t>MEM(2BD) -&gt; AC</t>
+  </si>
+  <si>
+    <t>AC -&gt;MEM(2C0)</t>
+  </si>
+  <si>
+    <t>Загрузка в аккумулятор y - 1 
+AC = y - 1</t>
+  </si>
+  <si>
+    <t>SP = 7FF
+7FF:  y - 1</t>
+  </si>
+  <si>
+    <t>AC = AC + r ---&gt; AC = f(y-1) + f(z+1)</t>
+  </si>
+  <si>
+    <t>Загрузка f(z+1) в R
+R =  f(z+1)</t>
+  </si>
+  <si>
+    <t>Загрузка 0 в R
+R = 0</t>
+  </si>
+  <si>
+    <t>Результат программы R</t>
+  </si>
+  <si>
+    <t>Загрузка  f(y-1) + f(z+1) в R
+R =   f(y-1) + f(z+1)</t>
+  </si>
+  <si>
+    <t>Загрузка в аккумулятор x 
+AC = x</t>
+  </si>
+  <si>
+    <t>SP = 7FF
+7FF:  x</t>
+  </si>
+  <si>
+    <t>AC = AC + r ---&gt; AC = f(y-1) + f(z+1) + f(x)</t>
+  </si>
+  <si>
+    <t>Загрузка  f(y-1) + f(z+1) + f(x)  в R
+R =  f(x) + f(y-1) + f(z+1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">если  N &lt;= 0  то переход в 691  </t>
+  </si>
+  <si>
+    <t>MEM(7FE) -&gt; IP</t>
+  </si>
+  <si>
+    <t>AC = f(z+1)</t>
+  </si>
+  <si>
+    <t>SUB (IP+18 = 2C0)</t>
+  </si>
+  <si>
+    <t>AC = f(z+1) - r ---&gt; AC = f(z+1) - 0</t>
+  </si>
+  <si>
+    <t>AC = f(y - 1)</t>
+  </si>
+  <si>
+    <t>AC = x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">если  N  &gt;=  A то переход в 691 (тогда AC = A)  </t>
+  </si>
+  <si>
+    <t>AC = A</t>
+  </si>
+  <si>
+    <t>AC = n</t>
+  </si>
+  <si>
+    <t>AC =3*n + 161</t>
+  </si>
+  <si>
+    <t>7FF: 3*n + 161</t>
+  </si>
+  <si>
+    <t>Переход в (IP+7 = 691) если N==1 (n&lt;0)</t>
+  </si>
+  <si>
+    <t>Переход в (IP+6 = 691) если Z==1 (n==0)</t>
+  </si>
+  <si>
+    <t>Сдвиг AC влево, AC(15) -&gt; C, 0 -&gt; AC(0) ---&gt; n*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC + MEM(SP+1 = 7FF) -&gt; AC ---&gt; n*2 + n </t>
+  </si>
+  <si>
+    <t>AC + MEM (IP+5 = 695) -&gt; AC ---&gt;  n*2 + n + 161</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,6 +641,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -632,7 +687,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -655,12 +710,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -686,26 +767,44 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,31 +1203,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F364D77-9773-E14F-BD54-BFD3990EB1BC}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E34"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="15.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="54.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="44.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>0</v>
@@ -1144,23 +1255,26 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="Y2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>1</v>
@@ -1170,108 +1284,106 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="Y3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y3" s="4" t="s">
+      <c r="B5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="Y5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB3" s="5" t="s">
+      <c r="Z5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y4" s="4" t="s">
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="Y5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>7</v>
@@ -1280,175 +1392,191 @@
         <v>8</v>
       </c>
       <c r="AB6" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="11" t="s">
+    <row r="8" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>119</v>
+      <c r="E8" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>109</v>
+      <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>110</v>
+      <c r="A10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>111</v>
+      <c r="A11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="E12" s="17"/>
       <c r="Y12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>120</v>
+      <c r="D13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>7</v>
@@ -1456,109 +1584,124 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>99</v>
+    <row r="14" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>119</v>
+      <c r="D15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>113</v>
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>115</v>
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>116</v>
+      <c r="C18" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>14</v>
@@ -1567,20 +1710,23 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>118</v>
+      <c r="D19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>7</v>
@@ -1588,548 +1734,584 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>99</v>
+    <row r="20" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>117</v>
+      <c r="D21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>121</v>
+      <c r="A22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>122</v>
+      <c r="A23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="D24" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="17"/>
       <c r="Y24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="A25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="17"/>
       <c r="Y25" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="A26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="17"/>
       <c r="Y26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="A27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="17"/>
       <c r="Y27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="1:28" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="A28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="17"/>
       <c r="Y28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="Y29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>688</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>688</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>143</v>
+      <c r="D30" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="Y30" s="4">
         <v>688</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="14">
         <v>689</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>149</v>
-      </c>
+      <c r="B31" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="10"/>
       <c r="Y31" s="4">
         <v>689</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="Y32" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>156</v>
-      </c>
+      <c r="A33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="Y33" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="10"/>
       <c r="Y34" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="10"/>
       <c r="Y35" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="10"/>
       <c r="Y36" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="10"/>
       <c r="Y37" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="14">
         <v>690</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>157</v>
+      <c r="B38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="Y38" s="4">
         <v>690</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="14">
         <v>691</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>136</v>
+      <c r="B39" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="Y39" s="4">
         <v>691</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
     <row r="40" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="14">
         <v>692</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>137</v>
+      <c r="B40" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="Y40" s="4">
         <v>692</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
     <row r="41" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="14">
         <v>693</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>138</v>
+      <c r="B41" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="Y41" s="4">
         <v>693</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="14">
         <v>694</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>145</v>
+      <c r="B42" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="Y42" s="4">
         <v>694</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
     <row r="43" spans="1:28" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43" s="14">
         <v>695</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>146</v>
+      <c r="B43" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="G43" s="7"/>
       <c r="Y43" s="4">
         <v>695</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
@@ -2141,17 +2323,28 @@
       <c r="G49" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="17">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="F35:F37"/>
     <mergeCell ref="E35:E37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="F31:F34"/>
     <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="A29:D29"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>